--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>tên</t>
   </si>
@@ -25,63 +25,42 @@
     <t xml:space="preserve">kênh sống </t>
   </si>
   <si>
+    <t>ytluatgia</t>
+  </si>
+  <si>
+    <t>ytxuanhung</t>
+  </si>
+  <si>
+    <t>yttaiho</t>
+  </si>
+  <si>
+    <t>ytloandong</t>
+  </si>
+  <si>
     <t>ytlinh</t>
   </si>
   <si>
-    <t>ytxuanhung</t>
-  </si>
-  <si>
-    <t>yttaiho</t>
-  </si>
-  <si>
-    <t>ytluatgia</t>
-  </si>
-  <si>
-    <t>ytloandong</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>ytcogang</t>
   </si>
   <si>
+    <t>ytductoan</t>
+  </si>
+  <si>
     <t>yttranngoc</t>
   </si>
   <si>
     <t>ytanhvu</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCWn7sq-D-6HOrRjAocrfhfg</t>
-  </si>
-  <si>
-    <t>ytyunguyen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,17 +82,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,18 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,9 +415,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -473,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -508,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -543,9 +520,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -578,128 +555,114 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K10" s="2">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="L10" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -60,7 +60,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -396,15 +396,15 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -485,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -555,15 +555,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -628,8 +628,17 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>

--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +628,12 @@
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
       <c r="J9">
         <v>7</v>
       </c>

--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>tên</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>ytanhvu</t>
+  </si>
+  <si>
+    <t>ytyunguyen</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +679,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -63,7 +63,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,15 +399,15 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -453,7 +453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -533,9 +533,6 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
         <v>3</v>
       </c>
@@ -558,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -566,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -589,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -615,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -647,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -679,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
